--- a/biology/Zoologie/Carcharias_cuspidata/Carcharias_cuspidata.xlsx
+++ b/biology/Zoologie/Carcharias_cuspidata/Carcharias_cuspidata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcharias cuspidata est une espèce éteinte de requins de la famille des Odontaspididae. Il était aussi désigné sous le nom de Odontaspis cuspidata.  
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces restes fossilisés sont présents dans les faluns de Bretagne[1], de l'Anjou-Touraine[2]. Ses dents se distinguent de celles de Carcharias acutissima par « une couronne lisse, plus large à la base, branches de la racine plus écartées, et un profil moins sigmoïdal ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces restes fossilisés sont présents dans les faluns de Bretagne, de l'Anjou-Touraine. Ses dents se distinguent de celles de Carcharias acutissima par « une couronne lisse, plus large à la base, branches de la racine plus écartées, et un profil moins sigmoïdal ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Louis Agassiz. 1843. Recherches Sur Les Poissons Fossiles. Tome III (livr. 15-16). Imprimerie de Petitpierre, Neuchâtel 157-390</t>
         </is>
